--- a/test/valid_A.xlsx
+++ b/test/valid_A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antoi\Desktop\Ecole\EPHEC_2_TI\Q1_Devweb\Projet\Projet_Dev_II_2TL2-7\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE469C99-9657-4C5A-A9DB-E5FA94C1991A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E519175-3F87-46D9-B260-6CE6D4C7CC16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FFE15064-3D6E-438E-8B50-4C814AC15555}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="75">
   <si>
     <t>Nom de la méthode</t>
   </si>
@@ -74,135 +74,15 @@
     <t>__init__()</t>
   </si>
   <si>
-    <t>firstname</t>
-  </si>
-  <si>
-    <t>lastname</t>
-  </si>
-  <si>
-    <t>birthdate</t>
-  </si>
-  <si>
-    <t>Test normal</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Toto</t>
-  </si>
-  <si>
-    <t>Tutu</t>
-  </si>
-  <si>
-    <t>Créé, variables d'instances OK</t>
-  </si>
-  <si>
-    <t>Ok</t>
-  </si>
-  <si>
-    <t>Test prénom composé</t>
-  </si>
-  <si>
-    <t>Jean Charles</t>
-  </si>
-  <si>
-    <t>Test nom composé</t>
-  </si>
-  <si>
-    <t>Van den Broek</t>
-  </si>
-  <si>
-    <t>Jean-Charles</t>
-  </si>
-  <si>
-    <t> avec caractère spécial</t>
-  </si>
-  <si>
-    <t>Test firstname invalide</t>
-  </si>
-  <si>
-    <t>String vide</t>
-  </si>
-  <si>
     <t>ValueError</t>
   </si>
   <si>
-    <t>Test lastname invalide</t>
-  </si>
-  <si>
-    <t>Test None</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
-    <t>Test date trop récente</t>
-  </si>
-  <si>
-    <t>Il y a 1 an</t>
-  </si>
-  <si>
-    <t>Aujourd'hui</t>
-  </si>
-  <si>
-    <t>Dans le futur</t>
-  </si>
-  <si>
-    <t>Test date limite</t>
-  </si>
-  <si>
-    <t>Il y a 15 ans</t>
-  </si>
-  <si>
-    <t>Créé, variable d'instance OK</t>
-  </si>
-  <si>
-    <t>Il y a 15 ans -1 jour</t>
-  </si>
-  <si>
-    <t>__str__()</t>
-  </si>
-  <si>
-    <t>self.firstname = Toto, </t>
-  </si>
-  <si>
     <t>Inchangé</t>
   </si>
   <si>
-    <t>Toto Tutu</t>
-  </si>
-  <si>
-    <t>self.lastname = Tutu</t>
-  </si>
-  <si>
-    <t>prénom composé</t>
-  </si>
-  <si>
-    <t>self.firstname = Jean Charles, </t>
-  </si>
-  <si>
-    <t>Jean Charles Tutu</t>
-  </si>
-  <si>
-    <t>nom composé</t>
-  </si>
-  <si>
-    <t>self.firstname = Toto</t>
-  </si>
-  <si>
-    <t>Toto Van den Broek</t>
-  </si>
-  <si>
-    <t>self.lastname = Van den Broek</t>
-  </si>
-  <si>
-    <t>prénom + nom composé</t>
-  </si>
-  <si>
-    <t>Jean Charles Van den Broek</t>
-  </si>
-  <si>
     <t>age()</t>
   </si>
   <si>
@@ -270,13 +150,124 @@
   </si>
   <si>
     <t>[10,11] en 2020</t>
+  </si>
+  <si>
+    <t>Class Commande</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>etat_commande</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>Test avec None</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Test sans paramètres</t>
+  </si>
+  <si>
+    <t>(par défaut =C)</t>
+  </si>
+  <si>
+    <t>Compteur après 3 créations</t>
+  </si>
+  <si>
+    <t>L'état est C</t>
+  </si>
+  <si>
+    <t>L'état est P</t>
+  </si>
+  <si>
+    <t>Le numero de commande est le n°1</t>
+  </si>
+  <si>
+    <t>Le numero de commande est le n°2</t>
+  </si>
+  <si>
+    <t>Le numero de commande est le n°3</t>
+  </si>
+  <si>
+    <t>Le compteur est à 4 (donc prêt pour la suivante)</t>
+  </si>
+  <si>
+    <t>etat_commande()</t>
+  </si>
+  <si>
+    <t>etat</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>Pm</t>
+  </si>
+  <si>
+    <t>Test avec P</t>
+  </si>
+  <si>
+    <t>Test avec C</t>
+  </si>
+  <si>
+    <t>Test avec P et m</t>
+  </si>
+  <si>
+    <t>Test avec une majuscule invalide</t>
+  </si>
+  <si>
+    <t>Test avec une minuscule invalide</t>
+  </si>
+  <si>
+    <t>Test avec un C minuscule</t>
+  </si>
+  <si>
+    <t>Test avec un P minuscule</t>
+  </si>
+  <si>
+    <t>Test avec un string vide</t>
+  </si>
+  <si>
+    <t>Test un numéro</t>
+  </si>
+  <si>
+    <t>L'état de la commande devient C</t>
+  </si>
+  <si>
+    <t>L'état de la commande devient P</t>
+  </si>
+  <si>
+    <t>Test avec C et P en même temps</t>
+  </si>
+  <si>
+    <t>L'état ne change pas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,13 +275,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -305,14 +308,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -642,21 +663,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCCE7B3-76CF-491E-82AA-B01BFA14FB6C}">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.109375" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" customWidth="1"/>
     <col min="2" max="2" width="26.88671875" customWidth="1"/>
     <col min="3" max="3" width="15.21875" customWidth="1"/>
     <col min="4" max="4" width="14.44140625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="31.44140625" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" customWidth="1"/>
+    <col min="7" max="7" width="22.109375" customWidth="1"/>
     <col min="8" max="8" width="14.77734375" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
@@ -703,531 +724,611 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="1">
-        <v>36526</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1">
-        <v>36526</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
       <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="1">
-        <v>36526</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="1">
-        <v>36526</v>
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>39</v>
+      </c>
+      <c r="I8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>62</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="1">
-        <v>36526</v>
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="I10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="1">
-        <v>36526</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="1">
-        <v>36526</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" t="s">
-        <v>16</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="3"/>
       <c r="H12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="I12" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" t="s">
-        <v>29</v>
+      <c r="A15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>63</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="G16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="4">
+        <v>42</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
         <v>16</v>
       </c>
-      <c r="H16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E17" t="s">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="1">
+        <v>43831</v>
+      </c>
+      <c r="F31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31">
         <v>40</v>
       </c>
-      <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="C32" s="1">
         <v>43831</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="G32">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="C33" s="1">
         <v>43831</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="G33">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="C34" s="1">
         <v>43831</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="G34">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="1">
         <v>43831</v>
       </c>
-      <c r="F35" t="s">
-        <v>43</v>
-      </c>
-      <c r="G35">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" t="s">
-        <v>56</v>
+      <c r="F37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="C38" s="1">
         <v>43831</v>
       </c>
       <c r="F38" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="G38" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="C39" s="1">
-        <v>43831</v>
+        <v>43101</v>
       </c>
       <c r="F39" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="G39" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="C40" s="1">
         <v>43101</v>
       </c>
       <c r="F40" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="G40" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>64</v>
-      </c>
-      <c r="C41" s="1">
-        <v>43101</v>
-      </c>
-      <c r="F41" t="s">
-        <v>43</v>
-      </c>
-      <c r="G41" t="s">
-        <v>63</v>
+      <c r="A41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" t="s">
-        <v>66</v>
-      </c>
-      <c r="D42" t="s">
-        <v>67</v>
+      <c r="B42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>2020</v>
+      </c>
+      <c r="F42" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="C43">
         <v>10</v>
@@ -1236,12 +1337,12 @@
         <v>2020</v>
       </c>
       <c r="F43" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="C44">
         <v>10</v>
@@ -1250,97 +1351,83 @@
         <v>2020</v>
       </c>
       <c r="F44" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
-        <v>72</v>
-      </c>
       <c r="C45">
         <v>10</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49">
         <v>2020</v>
       </c>
-      <c r="F45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46">
-        <v>10</v>
-      </c>
-      <c r="D46" t="s">
-        <v>74</v>
-      </c>
-      <c r="F46" t="s">
-        <v>43</v>
-      </c>
-      <c r="H46" t="s">
+      <c r="F49" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>75</v>
-      </c>
-      <c r="C49" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
-        <v>76</v>
       </c>
       <c r="C50">
         <v>2020</v>
       </c>
       <c r="F50" t="s">
-        <v>43</v>
-      </c>
-      <c r="G50" t="s">
-        <v>16</v>
-      </c>
-      <c r="H50" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="G50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="C51">
         <v>2020</v>
       </c>
       <c r="F51" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="G51">
-        <v>10</v>
-      </c>
-      <c r="H51" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
-        <v>77</v>
-      </c>
-      <c r="C52">
-        <v>2020</v>
-      </c>
-      <c r="F52" t="s">
-        <v>43</v>
-      </c>
-      <c r="G52">
         <v>11.5</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F12:G12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test/valid_A.xlsx
+++ b/test/valid_A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antoi\Desktop\Ecole\EPHEC_2_TI\Q1_Devweb\Projet\Projet_Dev_II_2TL2-7\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E519175-3F87-46D9-B260-6CE6D4C7CC16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD70BD3-467E-46A9-8A89-B482E43AB1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FFE15064-3D6E-438E-8B50-4C814AC15555}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="81">
   <si>
     <t>Nom de la méthode</t>
   </si>
@@ -80,78 +80,6 @@
     <t>None</t>
   </si>
   <si>
-    <t>Inchangé</t>
-  </si>
-  <si>
-    <t>age()</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>self.birthdate=1/1/1980</t>
-  </si>
-  <si>
-    <t>self.birthdate=1/1/2000</t>
-  </si>
-  <si>
-    <t>self.birthdate=1/1/2010</t>
-  </si>
-  <si>
-    <t>self.birthdate=1/3/2000</t>
-  </si>
-  <si>
-    <t>is_of_age()</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>self.birthdate=2/1/2000</t>
-  </si>
-  <si>
-    <t>add_result()</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>Pas de résultat encodé</t>
-  </si>
-  <si>
-    <t>[10] en 2020</t>
-  </si>
-  <si>
-    <t>[10,20] en 2021</t>
-  </si>
-  <si>
-    <t>[10] en 2020 et [10,20] en 2021</t>
-  </si>
-  <si>
-    <t>[10, 20, 30] en 2020</t>
-  </si>
-  <si>
-    <t>[10,20,30,10] en 2020</t>
-  </si>
-  <si>
-    <t>dans un an</t>
-  </si>
-  <si>
-    <t>average()</t>
-  </si>
-  <si>
-    <t>[] en 2020</t>
-  </si>
-  <si>
-    <t>[10,11] en 2020</t>
-  </si>
-  <si>
     <t>Class Commande</t>
   </si>
   <si>
@@ -261,6 +189,96 @@
   </si>
   <si>
     <t>L'état ne change pas</t>
+  </si>
+  <si>
+    <t>ajouter_plat()</t>
+  </si>
+  <si>
+    <t>Test avec un Plat valide</t>
+  </si>
+  <si>
+    <t>Test avec une nombre</t>
+  </si>
+  <si>
+    <t>Test que le tableau des plats est vide</t>
+  </si>
+  <si>
+    <t>Le plat se trouve dans la liste des plats</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>Tableau de plat vide</t>
+  </si>
+  <si>
+    <t>Test avec un nombre (tab non vide)</t>
+  </si>
+  <si>
+    <t>Test avec un Plat valide (tab non vide)</t>
+  </si>
+  <si>
+    <t>Le tableau de plat contient déjà 2 plats</t>
+  </si>
+  <si>
+    <t>Le plat se trouve dans la liste des plats en position 4</t>
+  </si>
+  <si>
+    <t>plat</t>
+  </si>
+  <si>
+    <t>Plat()</t>
+  </si>
+  <si>
+    <t>retirer_plat()</t>
+  </si>
+  <si>
+    <t>index_plat</t>
+  </si>
+  <si>
+    <t>IndexError</t>
+  </si>
+  <si>
+    <t>Le tableau est désormais vide</t>
+  </si>
+  <si>
+    <t>plats contient un objet Plat</t>
+  </si>
+  <si>
+    <t>Test avec le Plat au lieu de l'index</t>
+  </si>
+  <si>
+    <t>Test avec un index hors de la liste</t>
+  </si>
+  <si>
+    <t>Test avec un index dans la liste</t>
+  </si>
+  <si>
+    <t>Test avec un index quand la liste est vide</t>
+  </si>
+  <si>
+    <t>Test quand il y a plusieurs plats dans la liste</t>
+  </si>
+  <si>
+    <t>Test quand il y a plusieurs plats identiques</t>
+  </si>
+  <si>
+    <t>plats est vide</t>
+  </si>
+  <si>
+    <t>plats contient trois objets Plat</t>
+  </si>
+  <si>
+    <t>plats contient trois objets Plat, dont 2 identiques</t>
+  </si>
+  <si>
+    <t>L'élément en index 1 est retiré</t>
+  </si>
+  <si>
+    <t>Test avec un index négatif</t>
+  </si>
+  <si>
+    <t>increment_compteur()</t>
   </si>
 </sst>
 </file>
@@ -308,21 +326,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -663,21 +694,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCCE7B3-76CF-491E-82AA-B01BFA14FB6C}">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.109375" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" customWidth="1"/>
+    <col min="1" max="1" width="34.21875" customWidth="1"/>
+    <col min="2" max="2" width="39.21875" customWidth="1"/>
     <col min="3" max="3" width="15.21875" customWidth="1"/>
     <col min="4" max="4" width="14.44140625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="31.44140625" customWidth="1"/>
-    <col min="7" max="7" width="22.109375" customWidth="1"/>
+    <col min="6" max="6" width="42.44140625" customWidth="1"/>
+    <col min="7" max="7" width="23.109375" customWidth="1"/>
     <col min="8" max="8" width="14.77734375" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
@@ -724,7 +755,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -732,697 +763,826 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" t="s">
-        <v>39</v>
-      </c>
-      <c r="I16" t="s">
-        <v>48</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" t="s">
-        <v>39</v>
+      <c r="A17" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" t="s">
-        <v>72</v>
-      </c>
-      <c r="G17" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="G18" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="H18" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="G19" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="H19" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="H20" t="s">
         <v>12</v>
       </c>
       <c r="I20" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="H21" t="s">
         <v>12</v>
       </c>
       <c r="I21" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="H22" t="s">
         <v>12</v>
       </c>
       <c r="I22" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="H23" t="s">
         <v>12</v>
       </c>
       <c r="I23" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="4">
-        <v>42</v>
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F24" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="H24" t="s">
         <v>12</v>
       </c>
       <c r="I24" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="H25" t="s">
         <v>12</v>
       </c>
       <c r="I25" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="C26" s="3">
+        <v>42</v>
       </c>
       <c r="D26" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F26" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="G26" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="H26" t="s">
         <v>12</v>
       </c>
       <c r="I26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="1">
-        <v>43831</v>
-      </c>
-      <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31">
-        <v>40</v>
+      <c r="A31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
       <c r="B32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="1">
-        <v>43831</v>
+        <v>57</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" t="s">
+        <v>15</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="G32" t="s">
+        <v>56</v>
+      </c>
+      <c r="H32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>53</v>
+      </c>
       <c r="B33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="3">
+        <v>42</v>
+      </c>
+      <c r="D33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" t="s">
+        <v>50</v>
+      </c>
+      <c r="G33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" t="s">
+        <v>55</v>
+      </c>
+      <c r="G34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="3">
+        <v>42</v>
+      </c>
+      <c r="D35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" t="s">
+        <v>50</v>
+      </c>
+      <c r="G35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" t="s">
+        <v>61</v>
+      </c>
+      <c r="G36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="5">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" t="s">
+        <v>67</v>
+      </c>
+      <c r="G40" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="6">
         <v>19</v>
       </c>
-      <c r="C33" s="1">
-        <v>43831</v>
-      </c>
-      <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="1">
-        <v>43831</v>
-      </c>
-      <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="1">
-        <v>43831</v>
-      </c>
-      <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="1">
-        <v>43831</v>
-      </c>
-      <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" s="1">
-        <v>43101</v>
-      </c>
-      <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" s="1">
-        <v>43101</v>
-      </c>
-      <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" t="s">
-        <v>26</v>
-      </c>
       <c r="D41" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="E41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" t="s">
+        <v>50</v>
+      </c>
+      <c r="G41" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" t="s">
+        <v>66</v>
+      </c>
+      <c r="I41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>69</v>
+      </c>
       <c r="B42" t="s">
-        <v>28</v>
-      </c>
-      <c r="C42">
-        <v>10</v>
-      </c>
-      <c r="D42">
-        <v>2020</v>
+        <v>68</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" t="s">
+        <v>15</v>
       </c>
       <c r="F42" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="G42" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" t="s">
+        <v>66</v>
+      </c>
+      <c r="I42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>72</v>
+      </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="C43">
-        <v>10</v>
-      </c>
-      <c r="D43">
-        <v>2020</v>
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" t="s">
+        <v>15</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="G43" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" t="s">
+        <v>66</v>
+      </c>
+      <c r="I43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>73</v>
+      </c>
       <c r="B44" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="C44">
-        <v>10</v>
-      </c>
-      <c r="D44">
-        <v>2020</v>
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" t="s">
+        <v>15</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="G44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" t="s">
+        <v>77</v>
+      </c>
       <c r="C45">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="E45" t="s">
+        <v>15</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
+        <v>78</v>
+      </c>
+      <c r="G45" t="s">
+        <v>15</v>
       </c>
       <c r="H45" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>35</v>
-      </c>
-      <c r="C48" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>36</v>
-      </c>
-      <c r="C49">
-        <v>2020</v>
-      </c>
-      <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="H49" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
-        <v>29</v>
-      </c>
-      <c r="C50">
-        <v>2020</v>
-      </c>
-      <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
-        <v>37</v>
-      </c>
-      <c r="C51">
-        <v>2020</v>
-      </c>
-      <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51">
-        <v>11.5</v>
+        <v>15</v>
+      </c>
+      <c r="I45" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46">
+        <v>-1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" t="s">
+        <v>50</v>
+      </c>
+      <c r="G46" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" t="s">
+        <v>66</v>
+      </c>
+      <c r="I46" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F14:G14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="I1:I31 I36:I1048576">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"OK"</formula>
